--- a/Data5/DataDefinitions.xlsx
+++ b/Data5/DataDefinitions.xlsx
@@ -358,7 +358,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -366,18 +366,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -681,8 +698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -742,8 +759,8 @@
       <c r="F2">
         <v>6</v>
       </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
       <c r="J2" s="4" t="s">
         <v>15</v>
       </c>
@@ -768,16 +785,16 @@
       <c r="F3">
         <v>6</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K3" s="2" t="s">
+      <c r="J3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -800,17 +817,17 @@
       <c r="F4">
         <v>6</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="5">
         <v>1</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="3">
         <f t="shared" ref="J4:J11" si="0">COUNTIFS(C:C,H4,D:D,$J$3)</f>
         <v>6</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4" s="3">
         <f t="shared" ref="K4:K11" si="1">COUNTIFS(C:C,H4,D:D,$K$3)</f>
         <v>2</v>
       </c>
@@ -834,17 +851,17 @@
       <c r="F5">
         <v>6</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="5">
         <v>2</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5" s="3">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -868,17 +885,17 @@
       <c r="F6">
         <v>6</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="5">
         <v>3</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6" s="3">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -902,17 +919,17 @@
       <c r="F7">
         <v>6</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="6">
         <v>4</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7" s="3">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -936,17 +953,17 @@
       <c r="F8">
         <v>6</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="6">
         <v>5</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="K8" s="1">
+      <c r="K8" s="3">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -970,17 +987,17 @@
       <c r="F9">
         <v>6</v>
       </c>
-      <c r="H9" s="3">
-        <v>6</v>
-      </c>
-      <c r="I9" s="3" t="s">
+      <c r="H9" s="6">
+        <v>6</v>
+      </c>
+      <c r="I9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J9" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K9" s="1">
+      <c r="K9" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1004,17 +1021,17 @@
       <c r="F10">
         <v>6</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="6">
         <v>7</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="I10" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J10" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K10" s="1">
+      <c r="K10" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1038,17 +1055,17 @@
       <c r="F11">
         <v>6</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="6">
         <v>8</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="I11" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J11" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K11" s="1">
+      <c r="K11" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1072,8 +1089,8 @@
       <c r="F12">
         <v>6</v>
       </c>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
@@ -1096,7 +1113,7 @@
       <c r="F13">
         <v>6</v>
       </c>
-      <c r="H13" s="3"/>
+      <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
